--- a/Insania.xlsx
+++ b/Insania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shadow\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ADAF8F-CF0F-4BAC-954C-7C16DD2E3A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1044F9-1789-475C-A055-6D3DA0A4826A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="465" windowWidth="18795" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1215" windowWidth="18795" windowHeight="14985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="対応表" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -301,10 +301,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -339,12 +335,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -580,45 +575,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -630,7 +599,7 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -676,8 +645,8 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3">
-        <f>B8*20</f>
+      <c r="I2" s="2">
+        <f>B9*20</f>
         <v>0</v>
       </c>
     </row>
@@ -702,7 +671,7 @@
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f>SUM(C17:C75)</f>
         <v>0</v>
       </c>
@@ -728,7 +697,7 @@
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f>B8*10</f>
         <v>0</v>
       </c>
@@ -754,7 +723,7 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f>SUM(D17:D75)</f>
         <v>0</v>
       </c>
@@ -798,7 +767,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -842,7 +811,7 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>ROUNDUP((B7+B3)/2,0)</f>
         <v>0</v>
       </c>
@@ -862,7 +831,7 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>B4</f>
         <v>0</v>
       </c>
@@ -882,7 +851,7 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f>B4*5</f>
         <v>0</v>
       </c>
@@ -902,7 +871,7 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>B8*5</f>
         <v>0</v>
       </c>
@@ -922,7 +891,7 @@
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>B4*5</f>
         <v>0</v>
       </c>
@@ -942,7 +911,7 @@
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>B9*5</f>
         <v>0</v>
       </c>
@@ -962,8 +931,8 @@
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3">
-        <f>B3*5</f>
+      <c r="B16" s="2">
+        <f>B4*5</f>
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -982,11 +951,11 @@
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>B5*2</f>
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" ref="F17:F75" si="1">SUM(B17:D17)-E17</f>
         <v>0</v>
       </c>
@@ -999,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1011,7 +980,7 @@
       <c r="B19" s="1">
         <v>25</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1023,7 +992,7 @@
       <c r="B20" s="1">
         <v>50</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -1035,7 +1004,7 @@
       <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1047,7 +1016,7 @@
       <c r="B22" s="1">
         <v>25</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1059,7 +1028,7 @@
       <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1071,7 +1040,7 @@
       <c r="B24" s="1">
         <v>20</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -1083,7 +1052,7 @@
       <c r="B25" s="1">
         <v>15</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1095,7 +1064,7 @@
       <c r="B26" s="1">
         <v>30</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -1107,7 +1076,7 @@
       <c r="B27" s="1">
         <v>15</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1119,7 +1088,7 @@
       <c r="B28" s="1">
         <v>25</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1131,7 +1100,7 @@
       <c r="B29" s="1">
         <v>30</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -1143,7 +1112,7 @@
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1155,7 +1124,7 @@
       <c r="B31" s="1">
         <v>15</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1167,7 +1136,7 @@
       <c r="B32" s="1">
         <v>10</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1179,7 +1148,7 @@
       <c r="B33" s="1">
         <v>25</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1191,7 +1160,7 @@
       <c r="B34" s="1">
         <v>10</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1203,7 +1172,7 @@
       <c r="B35" s="1">
         <v>10</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1215,7 +1184,7 @@
       <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1227,7 +1196,7 @@
       <c r="B37" s="1">
         <v>10</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1239,7 +1208,7 @@
       <c r="B38" s="1">
         <v>40</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -1251,7 +1220,7 @@
       <c r="B39" s="1">
         <v>25</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1263,7 +1232,7 @@
       <c r="B40" s="1">
         <v>25</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1275,7 +1244,7 @@
       <c r="B41" s="1">
         <v>20</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -1287,7 +1256,7 @@
       <c r="B42" s="1">
         <v>20</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -1299,7 +1268,7 @@
       <c r="B43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1311,7 +1280,7 @@
       <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1323,7 +1292,7 @@
       <c r="B45" s="1">
         <v>25</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1335,7 +1304,7 @@
       <c r="B46" s="1">
         <v>5</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1347,7 +1316,7 @@
       <c r="B47" s="1">
         <v>1</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1359,7 +1328,7 @@
       <c r="B48" s="1">
         <v>25</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1371,7 +1340,7 @@
       <c r="B49" s="1">
         <v>10</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1383,7 +1352,7 @@
       <c r="B50" s="1">
         <v>10</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1395,7 +1364,7 @@
       <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1407,7 +1376,7 @@
       <c r="B52" s="1">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1419,7 +1388,7 @@
       <c r="B53" s="1">
         <v>15</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1431,7 +1400,7 @@
       <c r="B54" s="1">
         <v>15</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1443,7 +1412,7 @@
       <c r="B55" s="1">
         <v>5</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1455,7 +1424,7 @@
       <c r="B56" s="1">
         <v>50</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -1467,7 +1436,7 @@
       <c r="B57" s="1">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1479,7 +1448,7 @@
       <c r="B58" s="1">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1491,7 +1460,7 @@
       <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1503,7 +1472,7 @@
       <c r="B60" s="1">
         <v>0</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1515,7 +1484,7 @@
       <c r="B61" s="1">
         <v>5</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1527,7 +1496,7 @@
       <c r="B62" s="1">
         <v>10</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1539,7 +1508,7 @@
       <c r="B63" s="1">
         <v>1</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1551,7 +1520,7 @@
       <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1563,7 +1532,7 @@
       <c r="B65" s="1">
         <v>5</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1575,7 +1544,7 @@
       <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1587,7 +1556,7 @@
       <c r="B67" s="1">
         <v>1</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1599,7 +1568,7 @@
       <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1611,7 +1580,7 @@
       <c r="B69" s="1">
         <v>1</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1623,7 +1592,7 @@
       <c r="B70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1635,7 +1604,7 @@
       <c r="B71" s="1">
         <v>10</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1647,7 +1616,7 @@
       <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1659,7 +1628,7 @@
       <c r="B73" s="1">
         <v>5</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1671,7 +1640,7 @@
       <c r="B74" s="1">
         <v>1</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1683,7 +1652,7 @@
       <c r="B75" s="1">
         <v>20</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -1692,7 +1661,7 @@
       <c r="A76" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>I2</formula>
